--- a/错题本.xlsx
+++ b/错题本.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="10480"/>
+    <workbookView windowWidth="24750" windowHeight="10480" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="错题本" sheetId="1" r:id="rId1"/>
+    <sheet name="结构" sheetId="2" r:id="rId2"/>
+    <sheet name="零散知识" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>chromedriver版本</t>
   </si>
@@ -58,6 +60,33 @@
   </si>
   <si>
     <t>https://blog.csdn.net/qq_33210042/article/details/116161044</t>
+  </si>
+  <si>
+    <t>Study from https://www.bilibili.com/video/BV1BS4y1g74o/?spm_id_from=333.337.search-card.all.click&amp;vd_source=41d73bd2c03e83151066f0c1f6f284f3</t>
+  </si>
+  <si>
+    <t>selenium 三剑客</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>webdriver</t>
+  </si>
+  <si>
+    <t>浏览器的一些驱动</t>
+  </si>
+  <si>
+    <t>IDE</t>
+  </si>
+  <si>
+    <t>chrome 或 firefox 的一个插件</t>
+  </si>
+  <si>
+    <t>selenium grid</t>
+  </si>
+  <si>
+    <t>做分布式的测试用</t>
   </si>
 </sst>
 </file>
@@ -781,6 +810,239 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="7" name="组合 6"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="679450" y="457200"/>
+          <a:ext cx="15659100" cy="12971780"/>
+          <a:chOff x="1065" y="715"/>
+          <a:chExt cx="24778" cy="20600"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="图片 1"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1065" y="715"/>
+            <a:ext cx="20929" cy="12533"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="图片 2"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId2"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11941" y="12741"/>
+            <a:ext cx="13903" cy="8574"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="6" name="图片 5"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip r:embed="rId3"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2719" y="12887"/>
+            <a:ext cx="10167" cy="5707"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8890</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>6985</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>23495</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="测试方法"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="618490" y="13875385"/>
+          <a:ext cx="8566785" cy="9973310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503555</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>50165</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>535940</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>66040</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="7c9a4c56-773a-4c18-b7df-7877c54aec1e"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9647555" y="13918565"/>
+          <a:ext cx="8566785" cy="9972675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>130810</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>27940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>257810</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1350010" y="24030940"/>
+          <a:ext cx="13538200" cy="6445250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表6" displayName="表6" ref="B10:C23" totalsRowShown="0">
   <autoFilter ref="B10:C23"/>
@@ -798,6 +1060,17 @@
   <tableColumns count="2">
     <tableColumn id="1" name="chromedriver版本"/>
     <tableColumn id="2" name="网址"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="C3:D11" totalsRowShown="0">
+  <autoFilter ref="C3:D11"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="selenium 三剑客"/>
+    <tableColumn id="2" name="内容"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1055,7 +1328,7 @@
   <sheetPr/>
   <dimension ref="B1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1145,4 +1418,83 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C175" sqref="C175"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="3" max="3" width="20.8181818181818" customWidth="1"/>
+    <col min="4" max="4" width="35.1818181818182" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:4">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>